--- a/data/pscb1.xlsx
+++ b/data/pscb1.xlsx
@@ -5,10 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="orig" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="long" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="wide" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Tabelle4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="59">
   <si>
     <t xml:space="preserve">Lfd. Nr.</t>
   </si>
@@ -144,6 +147,79 @@
   <si>
     <t xml:space="preserve">224AA</t>
   </si>
+  <si>
+    <t xml:space="preserve">Verb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">condition</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">divertir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pronominal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorprender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molestar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encantar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preocupar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entristecer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">espantar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encantar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entristir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estranyar</t>
+  </si>
 </sst>
 </file>
 
@@ -154,11 +230,12 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -190,6 +267,20 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -205,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -224,6 +315,20 @@
       <left/>
       <right style="thick"/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thick"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -253,7 +358,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -296,6 +401,30 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -377,19 +506,19 @@
   </sheetPr>
   <dimension ref="A1:AW16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="10.77"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="10" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="10" style="1" width="10.77"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="49" min="49" style="2" width="11.53"/>
   </cols>
   <sheetData>
@@ -2646,4 +2775,5159 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q48"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>0.511805555555556</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>0.511111111111111</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>0.538194444444444</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>0.538194444444444</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>0.538194444444444</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>0.704861111111111</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>0.704166666666667</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>0.677083333333333</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>0.49375</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>0.49375</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <v>0.521527777777778</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>0.520138888888889</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>0.520138888888889</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>0.544444444444444</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>0.54375</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>0.547916666666667</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>0.547222222222222</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>0.546527777777778</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>0.543055555555556</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>0.711805555555556</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>0.709722222222222</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>0.684027777777778</v>
+      </c>
+      <c r="M6" s="8" t="n">
+        <v>0.501388888888889</v>
+      </c>
+      <c r="N6" s="8" t="n">
+        <v>0.500694444444444</v>
+      </c>
+      <c r="O6" s="8" t="n">
+        <v>0.529166666666667</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>103</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>109</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M43" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N43" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O43" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
+        <v>112</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M44" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O44" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>114</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>117</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M46" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N46" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O46" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>119</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M47" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N47" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O47" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AV17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="P1" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="R1" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="S1" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="T1" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="U1" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="V1" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="W1" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="X1" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="AC1" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD1" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="AE1" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG1" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="AH1" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="AI1" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AJ1" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="AK1" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL1" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="AM1" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="AN1" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="AO1" s="3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AP1" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="AQ1" s="3" t="n">
+        <v>109</v>
+      </c>
+      <c r="AR1" s="3" t="n">
+        <v>112</v>
+      </c>
+      <c r="AS1" s="3" t="n">
+        <v>114</v>
+      </c>
+      <c r="AT1" s="3" t="n">
+        <v>117</v>
+      </c>
+      <c r="AU1" s="3" t="n">
+        <v>119</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>0.511805555555556</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>0.520138888888889</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>0.511111111111111</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>0.520138888888889</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>0.538194444444444</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>0.544444444444444</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>0.538194444444444</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>0.54375</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>0.547916666666667</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>0.547222222222222</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>0.546527777777778</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>0.538194444444444</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>0.543055555555556</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>0.704861111111111</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>0.711805555555556</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="V10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>0.704166666666667</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>0.709722222222222</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="V11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>45061</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>0.677083333333333</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>0.684027777777778</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="V12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="X12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>0.49375</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>0.501388888888889</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>0.49375</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>0.500694444444444</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>0.521527777777778</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>0.529166666666667</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="V15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/pscb1.xlsx
+++ b/data/pscb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="60">
   <si>
     <t xml:space="preserve">Lfd. Nr.</t>
   </si>
@@ -209,16 +209,19 @@
     <t xml:space="preserve">encantar </t>
   </si>
   <si>
-    <t xml:space="preserve">sp</t>
+    <t xml:space="preserve">condition/verb</t>
   </si>
   <si>
-    <t xml:space="preserve">cat</t>
+    <t xml:space="preserve">6.64</t>
   </si>
   <si>
-    <t xml:space="preserve">entristir</t>
+    <t xml:space="preserve">8.86</t>
   </si>
   <si>
-    <t xml:space="preserve">estranyar</t>
+    <t xml:space="preserve">4.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21</t>
   </si>
 </sst>
 </file>
@@ -358,7 +361,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -420,6 +423,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -506,7 +513,7 @@
   </sheetPr>
   <dimension ref="A1:AW16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2784,8 +2791,8 @@
   </sheetPr>
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I18" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O46" activeCellId="0" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5313,7 +5320,7 @@
   </sheetPr>
   <dimension ref="A1:AV17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7775,151 +7782,161 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.95"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>5</v>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>5</v>
+      <c r="A2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>5</v>
+      <c r="A3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>56</v>
-      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="C19" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
